--- a/output/fit_clients/fit_round_264.xlsx
+++ b/output/fit_clients/fit_round_264.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2304794739.162582</v>
+        <v>1975809867.728556</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09953958505533059</v>
+        <v>0.06925676431680607</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04313608752874419</v>
+        <v>0.04112460899572246</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1152397406.201073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2412324754.475678</v>
+        <v>2305306324.983368</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1286914319919356</v>
+        <v>0.1308003471323787</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03412998915480558</v>
+        <v>0.04060566665805766</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1206162481.150488</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3154373723.310123</v>
+        <v>3523800670.852604</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1563990802806483</v>
+        <v>0.1174232530037469</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03547942388967423</v>
+        <v>0.03728546006118448</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>95</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1577186815.918238</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2928476397.921432</v>
+        <v>3480002258.601079</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0716252343458789</v>
+        <v>0.1024631657250104</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0456102149064494</v>
+        <v>0.04035608467523827</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1464238273.513182</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2794117153.468049</v>
+        <v>2781928482.217126</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1148548626640857</v>
+        <v>0.0929696041660058</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05387062021384503</v>
+        <v>0.04904018979829002</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>43</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1397058520.379862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2945924868.986601</v>
+        <v>2558045348.089007</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08104194409515567</v>
+        <v>0.06402789784032693</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03941319296992019</v>
+        <v>0.03171071353419371</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>83</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1472962404.639949</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3684999728.518449</v>
+        <v>2396615690.32371</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2003138394283612</v>
+        <v>0.1988362481408725</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02903031833702068</v>
+        <v>0.03202590702517939</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>84</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1842499991.79653</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1466813530.667752</v>
+        <v>1622050141.499021</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1561822285716287</v>
+        <v>0.1658526370098552</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02512761864951872</v>
+        <v>0.03291072830523065</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>733406865.9183317</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5918766661.176952</v>
+        <v>4894391760.091044</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1638845013024079</v>
+        <v>0.2073873971929782</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05372673903209003</v>
+        <v>0.03905614555405973</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>111</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2959383501.065969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3986825063.648288</v>
+        <v>4038274804.368293</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1368933299563982</v>
+        <v>0.1170312364347293</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04729683159867928</v>
+        <v>0.04920629939411508</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>109</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1993412543.622329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2843831098.04515</v>
+        <v>2549585021.326602</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1218318178945335</v>
+        <v>0.1941400721165484</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05322487077880469</v>
+        <v>0.03381819142843934</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>89</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1421915552.746932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4331130255.467767</v>
+        <v>4588512052.09057</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09303199129626409</v>
+        <v>0.08752894242373105</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02491439883529128</v>
+        <v>0.02162160482788032</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>89</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2165565165.836478</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2416869735.314254</v>
+        <v>3695288231.356172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1887641255451926</v>
+        <v>0.1443481666792386</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03781093011090063</v>
+        <v>0.03108524081215924</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1208434944.314282</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1315995349.095065</v>
+        <v>1834117195.396928</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06780683208496874</v>
+        <v>0.1076929191302134</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04921312341814133</v>
+        <v>0.04309867025870644</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>657997718.3257419</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2866619615.129812</v>
+        <v>2546675403.66851</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0817509745591556</v>
+        <v>0.08969208199382439</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03682863671841188</v>
+        <v>0.04166987798968461</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1433309805.634648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5136653473.235782</v>
+        <v>4637610307.50918</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1429650171495282</v>
+        <v>0.1223659379911554</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04512880241086526</v>
+        <v>0.03891766637840745</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>77</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2568326714.9808</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2427188754.797333</v>
+        <v>3854820681.88411</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1464263389132092</v>
+        <v>0.1666707649896552</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02214230593883119</v>
+        <v>0.02419403033883306</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>87</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1213594449.174556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1215449392.837096</v>
+        <v>1060896973.321449</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1707722404317625</v>
+        <v>0.1887957142009435</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02414832888946585</v>
+        <v>0.02543247759286205</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>607724778.1227943</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2798227233.399466</v>
+        <v>2302694550.211756</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1021741202218879</v>
+        <v>0.1379946166410502</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02792150663418786</v>
+        <v>0.02942711864286086</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1399113558.002797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2722971395.670951</v>
+        <v>2678624283.51026</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08390872483981461</v>
+        <v>0.09061708655428431</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04352627877912849</v>
+        <v>0.03434657834688556</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1361485664.647851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3377773187.564833</v>
+        <v>3959637844.704404</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08729853370069687</v>
+        <v>0.1247020755031006</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0466280732869503</v>
+        <v>0.03821556431506561</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>73</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1688886632.686407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1371235873.847713</v>
+        <v>1322333785.4152</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1249544765820116</v>
+        <v>0.1339398372468033</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03927792225603221</v>
+        <v>0.03995204670916117</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>685617944.5518441</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4081969757.332436</v>
+        <v>2837562445.810919</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1277897503892601</v>
+        <v>0.1146626210744261</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03216179385909046</v>
+        <v>0.02514413956365691</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>77</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2040984841.142347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1445482688.764264</v>
+        <v>1128211804.77335</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07629010462600325</v>
+        <v>0.08977382988258228</v>
       </c>
       <c r="G25" t="n">
-        <v>0.022619927685113</v>
+        <v>0.02005391495122319</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>722741305.8709532</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1304233721.070143</v>
+        <v>1006773269.34967</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1067864946935295</v>
+        <v>0.1152429068491445</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03083790867832444</v>
+        <v>0.03294934808228388</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>652116907.0456976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3374217538.358445</v>
+        <v>3355412604.393093</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1415745203374688</v>
+        <v>0.1157023536630526</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02271442059549919</v>
+        <v>0.01768490045941939</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1687108810.394139</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2951662511.939452</v>
+        <v>2571176745.427894</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1484668087624857</v>
+        <v>0.1251179891184667</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03507629993491237</v>
+        <v>0.03937429903276509</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1475831262.978847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4895012139.065393</v>
+        <v>4543216148.14828</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1148086445080243</v>
+        <v>0.1133398290767844</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03999548017988498</v>
+        <v>0.04472009083202324</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>117</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2447506024.365847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1773380516.634866</v>
+        <v>1726196874.285656</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09060319528278001</v>
+        <v>0.09395571428791259</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03934075417128134</v>
+        <v>0.02897964300884839</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>886690269.9369383</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1081599681.841913</v>
+        <v>1457811587.708427</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08178486188516509</v>
+        <v>0.09287706227271973</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04546432732135718</v>
+        <v>0.04665417227523466</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>540799820.2408365</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1404330925.266122</v>
+        <v>1257536629.708842</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08056805662731566</v>
+        <v>0.1020775072885742</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03624180065255635</v>
+        <v>0.02905119757352861</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>702165511.1785902</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2961028135.240247</v>
+        <v>2474477675.013997</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1849169363489515</v>
+        <v>0.2060312137617434</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05584126880880055</v>
+        <v>0.04918131272712595</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>81</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1480514066.555372</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1404510131.095063</v>
+        <v>1345647084.586135</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0791385696096506</v>
+        <v>0.1161564774156462</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02367232838107508</v>
+        <v>0.02072988120129084</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>702255037.0623033</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1149335199.932645</v>
+        <v>1030428933.058337</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0902776046770177</v>
+        <v>0.08289757200984797</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04221799277997363</v>
+        <v>0.04412806989888014</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>574667585.7967515</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3159028680.306823</v>
+        <v>3055604713.013016</v>
       </c>
       <c r="F36" t="n">
-        <v>0.149912911039901</v>
+        <v>0.1607671745258681</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02284591952692304</v>
+        <v>0.01980441684155505</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>65</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1579514309.334493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1900035174.587975</v>
+        <v>2906586219.903583</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08998908690362722</v>
+        <v>0.1106590019752759</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02933446586975322</v>
+        <v>0.03024490126659394</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>69</v>
-      </c>
-      <c r="J37" t="n">
-        <v>950017600.802824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1484263252.000231</v>
+        <v>1885711796.466848</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1070246135978113</v>
+        <v>0.08815709777966398</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03675741699684615</v>
+        <v>0.03831110948551249</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>742131677.4767438</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2105567263.217903</v>
+        <v>2102060410.912632</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1347866082245703</v>
+        <v>0.1171035629626811</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02787746783788538</v>
+        <v>0.02848941916533971</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1052783610.107324</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1119606412.398519</v>
+        <v>1693966824.527304</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1548149535437399</v>
+        <v>0.1281317676172409</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05533666635648535</v>
+        <v>0.04407253199196447</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>559803267.5910472</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2326444638.438832</v>
+        <v>2609717010.033802</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1381458922371451</v>
+        <v>0.1149121741009444</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04053314019133529</v>
+        <v>0.04520583200782567</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>63</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1163222361.44896</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3722509079.17519</v>
+        <v>3248651469.601395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1129150591093748</v>
+        <v>0.09726338797677998</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03463115483122725</v>
+        <v>0.04615066326623697</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1861254549.758713</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2908561226.220469</v>
+        <v>1965131801.763843</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1810910328561835</v>
+        <v>0.1949285271926481</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02514708718529217</v>
+        <v>0.02203276763622935</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>94</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1454280620.683835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1634224987.538877</v>
+        <v>1937389489.525476</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09947209540886286</v>
+        <v>0.09185494743519337</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02388022925680385</v>
+        <v>0.03005643063682651</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>817112527.1165015</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2184469264.920685</v>
+        <v>2322645213.821126</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1368323611511149</v>
+        <v>0.1942631641469547</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03499798189220883</v>
+        <v>0.04006063729642135</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1092234641.950459</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4891891343.34613</v>
+        <v>4694117748.553314</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1442829967979151</v>
+        <v>0.1188414071757546</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05138970135463324</v>
+        <v>0.04545302470716196</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>94</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2445945692.263924</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5110318584.589435</v>
+        <v>4342360463.976633</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1835036917185903</v>
+        <v>0.1630406311100418</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05313447274930534</v>
+        <v>0.03604014221307638</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>71</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2555159354.369697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3688114619.139684</v>
+        <v>4202079834.852339</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09634030102580597</v>
+        <v>0.08456433978673185</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02607721258686891</v>
+        <v>0.02904034249465553</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1844057362.08704</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1205939020.91536</v>
+        <v>1512066401.727169</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1875367700247217</v>
+        <v>0.1837222772090684</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03531158811407687</v>
+        <v>0.03926832523067742</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>602969588.197903</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3717088618.796301</v>
+        <v>3397880700.906969</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1147953440464107</v>
+        <v>0.1573564751135375</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04835618609843482</v>
+        <v>0.0530056304306824</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>90</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1858544318.209091</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1403664431.787915</v>
+        <v>1211573703.783992</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1310563129443892</v>
+        <v>0.1656115121171879</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03309241137700115</v>
+        <v>0.05347470627053025</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>701832234.4344724</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5280582973.947788</v>
+        <v>4049271033.475181</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09095583462210748</v>
+        <v>0.1066657764545991</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04575590737300091</v>
+        <v>0.05356705761253049</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>109</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2640291468.076734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2427159661.324113</v>
+        <v>3185575094.896521</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1361305613137363</v>
+        <v>0.1403054854099693</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02778113746161699</v>
+        <v>0.03091678032360079</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>76</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1213579902.609557</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4665510979.233566</v>
+        <v>3156586615.073943</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1522871142008659</v>
+        <v>0.1451597080479499</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05131025862886923</v>
+        <v>0.04339005575922804</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>86</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2332755605.957371</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3619382489.168042</v>
+        <v>4717430193.392964</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2025317708347875</v>
+        <v>0.2015966728365729</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02370624872906084</v>
+        <v>0.03115656501023338</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1809691202.677439</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1573681702.953673</v>
+        <v>1278405539.768985</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1557116555409854</v>
+        <v>0.1459678744569912</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04245580231440928</v>
+        <v>0.05236791574503813</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>786840882.8236947</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3097173920.170775</v>
+        <v>2946274868.708656</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1401178543584299</v>
+        <v>0.1559701888349447</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02574619127347799</v>
+        <v>0.01938447729342735</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>84</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1548586972.645792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1161093173.419858</v>
+        <v>1629228551.194628</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1861337961894316</v>
+        <v>0.1582522440600654</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02438968868797891</v>
+        <v>0.02581141780697196</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>580546648.7577069</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4140278097.95005</v>
+        <v>3555037239.85063</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1209834180133008</v>
+        <v>0.08663980621435055</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0477893860990057</v>
+        <v>0.0472462195160696</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2070139018.134912</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3507566332.052897</v>
+        <v>3172294487.526405</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1713972491360108</v>
+        <v>0.1560318558343129</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02385226629999091</v>
+        <v>0.02692689642445077</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>82</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1753783289.613308</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2482291199.960689</v>
+        <v>2567231853.613139</v>
       </c>
       <c r="F61" t="n">
-        <v>0.151637430099841</v>
+        <v>0.1127322609370894</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0225585548674771</v>
+        <v>0.02093081654268901</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>91</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1241145629.268174</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1579366031.051486</v>
+        <v>1533854026.839063</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1608278049510823</v>
+        <v>0.1605341103600367</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03995751976543942</v>
+        <v>0.04099986538392707</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>789683010.4822683</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3802355444.2431</v>
+        <v>4589975337.347549</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08458410513194274</v>
+        <v>0.06644633236854879</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04690541737524138</v>
+        <v>0.02930892717523158</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>76</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1901177793.321601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4342439779.296732</v>
+        <v>4334610961.065362</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1554118387230574</v>
+        <v>0.1272345041975851</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02930803447322358</v>
+        <v>0.03416877236950222</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>82</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2171219949.592627</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4931663114.878229</v>
+        <v>4864716728.969717</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1576003882787529</v>
+        <v>0.132074140231218</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02934385715570988</v>
+        <v>0.03114380949187259</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>95</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2465831520.431235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5118137065.966807</v>
+        <v>5681388826.144124</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1149332833979154</v>
+        <v>0.1434741214513545</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04902761081106891</v>
+        <v>0.04761763668014563</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>77</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2559068566.452835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3269316795.357524</v>
+        <v>2180761161.538045</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06260830927474201</v>
+        <v>0.0863793140958672</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04655071652147996</v>
+        <v>0.04618637225559573</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>85</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1634658393.14251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5689993450.172916</v>
+        <v>5965736599.860003</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1001510420097471</v>
+        <v>0.1411762999130839</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04895754964682641</v>
+        <v>0.04036480165799233</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2844996823.280368</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2434013460.053991</v>
+        <v>2465649249.617694</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1649069911032224</v>
+        <v>0.1454405563007775</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03842485917045479</v>
+        <v>0.03886506338909099</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1217006791.080465</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2262641127.528064</v>
+        <v>3033491752.257483</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09960357376458295</v>
+        <v>0.08862428070066899</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03009264254186971</v>
+        <v>0.04677071144205896</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>76</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1131320492.772669</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5436290254.62007</v>
+        <v>3929217387.917428</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1268283520077871</v>
+        <v>0.1692260832155543</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02697764813344858</v>
+        <v>0.02203940893174066</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>96</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2718145265.557851</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1655933593.786543</v>
+        <v>1506996796.461811</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06825766932912578</v>
+        <v>0.07250927010021624</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04913753432425906</v>
+        <v>0.04881027853235586</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>827966798.7429324</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2708123322.133458</v>
+        <v>2950746288.005511</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07749784050862288</v>
+        <v>0.1016973178463817</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03285413498210898</v>
+        <v>0.03274443873812968</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>101</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1354061683.779922</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3338793069.040536</v>
+        <v>2563810417.963403</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1726456006092234</v>
+        <v>0.1725740426994252</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0219988613626375</v>
+        <v>0.02871162091515575</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>90</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1669396570.646849</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2426735544.693677</v>
+        <v>1511349099.943687</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1484290833660811</v>
+        <v>0.1008570215415887</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0291687531745131</v>
+        <v>0.02411859096799759</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1213367696.520846</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5082098382.122709</v>
+        <v>4249992756.946157</v>
       </c>
       <c r="F76" t="n">
-        <v>0.119028483115437</v>
+        <v>0.07592404271173418</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02497204155426317</v>
+        <v>0.02159620274907944</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2541049221.146064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1557877868.519509</v>
+        <v>1617920410.09543</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1486346624462822</v>
+        <v>0.1147779410167068</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03134001162942673</v>
+        <v>0.02911699905238882</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>778938930.4629542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4420664713.506531</v>
+        <v>4337282312.869059</v>
       </c>
       <c r="F78" t="n">
-        <v>0.131206217767478</v>
+        <v>0.0863305552694265</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04515012483540641</v>
+        <v>0.05391954780020019</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>92</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2210332292.370951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1925693051.055847</v>
+        <v>1434986262.045211</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1647939439022626</v>
+        <v>0.1174485370674715</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02585865492599613</v>
+        <v>0.02793936341923249</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>962846634.1967126</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4093815128.3851</v>
+        <v>4128519279.390307</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07380480289232216</v>
+        <v>0.1047031842126023</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03067015796908187</v>
+        <v>0.03678089117297691</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>55</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2046907568.313832</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3261976597.250881</v>
+        <v>3574874366.979677</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08673297942828985</v>
+        <v>0.0884082268643261</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03057257038448554</v>
+        <v>0.02380473301817093</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1630988234.426839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4187212418.541248</v>
+        <v>3624822700.554989</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1887317448580274</v>
+        <v>0.2145418028261891</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01823232282182026</v>
+        <v>0.01890175576487169</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>94</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2093606238.59094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1901251984.381244</v>
+        <v>2095466888.428871</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1565362650957114</v>
+        <v>0.1477305506818129</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03836466899135654</v>
+        <v>0.04223640625411249</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>950625965.2267448</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1950945980.292753</v>
+        <v>1917046251.046297</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09883363169880188</v>
+        <v>0.114564064677899</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03709873231156904</v>
+        <v>0.04230722561409365</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>975473002.3190604</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3608291388.490943</v>
+        <v>3591220377.051152</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1472639847743741</v>
+        <v>0.1320464717970819</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04696486134998348</v>
+        <v>0.03452000019714079</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>99</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1804145821.564446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2636334302.099712</v>
+        <v>1914296533.317147</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1242504490803803</v>
+        <v>0.1489436748409574</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01968793472811493</v>
+        <v>0.02286473416693156</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1318167267.166299</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1167160069.035362</v>
+        <v>1174480696.551711</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1896090625278605</v>
+        <v>0.1851862727708055</v>
       </c>
       <c r="G87" t="n">
-        <v>0.027967214572443</v>
+        <v>0.02849467492242318</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>583580081.6778605</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2610936694.322157</v>
+        <v>3006321524.407373</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1465424125774624</v>
+        <v>0.1522073132089022</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03294909559336299</v>
+        <v>0.02725991778417458</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>104</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1305468339.164038</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2719393203.747878</v>
+        <v>3073615702.028502</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1446860082592677</v>
+        <v>0.1062850682049336</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02531523044159775</v>
+        <v>0.03947442549786737</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>89</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1359696660.548306</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1519959732.990815</v>
+        <v>1694391137.644718</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1286989886390696</v>
+        <v>0.1289246288998796</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03536309073476997</v>
+        <v>0.03672174615947684</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>759979848.9035046</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2097094510.450072</v>
+        <v>1805912029.995486</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1638623974561498</v>
+        <v>0.1886299778878132</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05685428545212576</v>
+        <v>0.04826301592246184</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1048547214.557473</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2505933662.569903</v>
+        <v>1988722589.639436</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0785113210689528</v>
+        <v>0.1073747117890511</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03681975591172187</v>
+        <v>0.03087129423732429</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1252966815.670285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3103062786.2205</v>
+        <v>4947168038.257689</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1099908328559053</v>
+        <v>0.1100349692609986</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03393398593388416</v>
+        <v>0.04857799758199371</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1551531451.721062</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2527818894.09889</v>
+        <v>1952476661.774107</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1342077782815189</v>
+        <v>0.1425806060112871</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0278517921774828</v>
+        <v>0.03904278068618795</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1263909514.108803</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3062699858.514052</v>
+        <v>2500965898.096102</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1363030575494742</v>
+        <v>0.09655752595435702</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04988710540741816</v>
+        <v>0.03817190580923328</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>64</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1531349924.448766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1855249832.755761</v>
+        <v>2266411279.852704</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1338951308203045</v>
+        <v>0.1122767348403898</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04519072675576728</v>
+        <v>0.03274576240445987</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>927624918.7993299</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4545612536.921168</v>
+        <v>5006410554.394874</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1244411296260721</v>
+        <v>0.1569457109618269</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02721132543035696</v>
+        <v>0.02340615112313855</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>84</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2272806368.709025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3014620797.442467</v>
+        <v>3931170065.060081</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08918099999514786</v>
+        <v>0.1228533668294341</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02664613562797164</v>
+        <v>0.02313413926127071</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1507310384.385066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2797915657.411018</v>
+        <v>3098210869.173444</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1363972112433742</v>
+        <v>0.1002069029960768</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02737853295142873</v>
+        <v>0.02869175378752165</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>82</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1398957799.985069</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4720461197.184795</v>
+        <v>3681006377.133482</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1648693285324251</v>
+        <v>0.1134978574931821</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01804305462298805</v>
+        <v>0.02023003278073057</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>82</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2360230726.789382</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3252877130.728991</v>
+        <v>2501105305.359098</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1650391180555575</v>
+        <v>0.1579728956655583</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05423778443343356</v>
+        <v>0.05412180542957489</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>105</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1626438687.876038</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_264.xlsx
+++ b/output/fit_clients/fit_round_264.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1975809867.728556</v>
+        <v>1707172082.583819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06925676431680607</v>
+        <v>0.1078509451655157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04112460899572246</v>
+        <v>0.02941959014485416</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2305306324.983368</v>
+        <v>2402504116.239038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1308003471323787</v>
+        <v>0.1554921682277501</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04060566665805766</v>
+        <v>0.03280234027096075</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3523800670.852604</v>
+        <v>5166807334.350026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1174232530037469</v>
+        <v>0.1356790348810959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03728546006118448</v>
+        <v>0.02492115178983415</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3480002258.601079</v>
+        <v>3744557077.349605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1024631657250104</v>
+        <v>0.09553938416694149</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04035608467523827</v>
+        <v>0.04688319247749245</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2781928482.217126</v>
+        <v>2486266259.257173</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0929696041660058</v>
+        <v>0.1370254619657003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04904018979829002</v>
+        <v>0.04035577475521113</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2558045348.089007</v>
+        <v>1929844201.347326</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06402789784032693</v>
+        <v>0.07420426365525754</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03171071353419371</v>
+        <v>0.04865358778152667</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2396615690.32371</v>
+        <v>3905829166.080524</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1988362481408725</v>
+        <v>0.1486280108896331</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03202590702517939</v>
+        <v>0.03251872857915691</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1622050141.499021</v>
+        <v>2170262294.349258</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1658526370098552</v>
+        <v>0.1967724608293281</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03291072830523065</v>
+        <v>0.03527644088792292</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4894391760.091044</v>
+        <v>5562043079.31658</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2073873971929782</v>
+        <v>0.2001027083384575</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03905614555405973</v>
+        <v>0.04514237075712017</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4038274804.368293</v>
+        <v>3865514897.183312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1170312364347293</v>
+        <v>0.1319096522839762</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04920629939411508</v>
+        <v>0.04160663096106779</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2549585021.326602</v>
+        <v>3071110768.871468</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1941400721165484</v>
+        <v>0.1980443394053185</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03381819142843934</v>
+        <v>0.04676690643686364</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4588512052.09057</v>
+        <v>4767218646.126369</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08752894242373105</v>
+        <v>0.09154366321094178</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02162160482788032</v>
+        <v>0.02828187388393124</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3695288231.356172</v>
+        <v>3645000779.619442</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1443481666792386</v>
+        <v>0.1384605359997864</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03108524081215924</v>
+        <v>0.0346831706478804</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1834117195.396928</v>
+        <v>1156800579.16031</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1076929191302134</v>
+        <v>0.07922898999623974</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04309867025870644</v>
+        <v>0.04355354612584541</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2546675403.66851</v>
+        <v>2511545226.973475</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08969208199382439</v>
+        <v>0.09744378661658046</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04166987798968461</v>
+        <v>0.04989378647635382</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4637610307.50918</v>
+        <v>4213292869.308821</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1223659379911554</v>
+        <v>0.1308966144070109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03891766637840745</v>
+        <v>0.03780591001046221</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3854820681.88411</v>
+        <v>3844641123.737563</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1666707649896552</v>
+        <v>0.1320071059935865</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02419403033883306</v>
+        <v>0.02621850014759804</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1060896973.321449</v>
+        <v>1081772776.425173</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1887957142009435</v>
+        <v>0.1257034694742554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02543247759286205</v>
+        <v>0.02310213265192265</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2302694550.211756</v>
+        <v>2064387532.218393</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1379946166410502</v>
+        <v>0.147769773279153</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02942711864286086</v>
+        <v>0.03178455368570443</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2678624283.51026</v>
+        <v>2490922717.352689</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09061708655428431</v>
+        <v>0.09803022228913053</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03434657834688556</v>
+        <v>0.03392201923930118</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3959637844.704404</v>
+        <v>3837230878.805191</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1247020755031006</v>
+        <v>0.1043763045151628</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03821556431506561</v>
+        <v>0.04748059640348384</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1322333785.4152</v>
+        <v>1050198300.102643</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1339398372468033</v>
+        <v>0.1332482050441057</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03995204670916117</v>
+        <v>0.03515140635789044</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2837562445.810919</v>
+        <v>3384860069.895492</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1146626210744261</v>
+        <v>0.09640941380036237</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02514413956365691</v>
+        <v>0.03119324143838864</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1128211804.77335</v>
+        <v>1018954101.499046</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08977382988258228</v>
+        <v>0.1154718190772948</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02005391495122319</v>
+        <v>0.03027681625486168</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1006773269.34967</v>
+        <v>1145289426.750199</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1152429068491445</v>
+        <v>0.119284194260275</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03294934808228388</v>
+        <v>0.02957066303566291</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3355412604.393093</v>
+        <v>4498081286.494658</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1157023536630526</v>
+        <v>0.1096363801822556</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01768490045941939</v>
+        <v>0.02223901142931303</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2571176745.427894</v>
+        <v>3431093070.861473</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1251179891184667</v>
+        <v>0.1503028666269478</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03937429903276509</v>
+        <v>0.05027814546454672</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4543216148.14828</v>
+        <v>4795646376.78261</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1133398290767844</v>
+        <v>0.1241123312392642</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04472009083202324</v>
+        <v>0.03737444979849727</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1726196874.285656</v>
+        <v>1955094550.266451</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09395571428791259</v>
+        <v>0.1139777297300666</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02897964300884839</v>
+        <v>0.0386378896492229</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1457811587.708427</v>
+        <v>1489999574.180285</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09287706227271973</v>
+        <v>0.08329046194526123</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04665417227523466</v>
+        <v>0.04440573234955883</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1257536629.708842</v>
+        <v>1842781485.975775</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1020775072885742</v>
+        <v>0.1082113496913492</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02905119757352861</v>
+        <v>0.03375597506174017</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2474477675.013997</v>
+        <v>2526257409.776058</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2060312137617434</v>
+        <v>0.2044831057624931</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04918131272712595</v>
+        <v>0.04643079350978638</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1345647084.586135</v>
+        <v>1500929537.53122</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1161564774156462</v>
+        <v>0.09246506113705509</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02072988120129084</v>
+        <v>0.02582080377868422</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1030428933.058337</v>
+        <v>951954167.4341356</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08289757200984797</v>
+        <v>0.09925316195604943</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04412806989888014</v>
+        <v>0.03212164309725631</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3055604713.013016</v>
+        <v>3255674427.170722</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1607671745258681</v>
+        <v>0.150301160927199</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01980441684155505</v>
+        <v>0.01782845673427295</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2906586219.903583</v>
+        <v>1997907286.325518</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1106590019752759</v>
+        <v>0.08091867408044535</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03024490126659394</v>
+        <v>0.0378148008139142</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1885711796.466848</v>
+        <v>2198815735.995862</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08815709777966398</v>
+        <v>0.1188764739053224</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03831110948551249</v>
+        <v>0.02629972474850297</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2102060410.912632</v>
+        <v>1490228007.18162</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1171035629626811</v>
+        <v>0.164758631007102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02848941916533971</v>
+        <v>0.03282153386943137</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1693966824.527304</v>
+        <v>1196888688.909811</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1281317676172409</v>
+        <v>0.1283527133720187</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04407253199196447</v>
+        <v>0.03783012001239868</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2609717010.033802</v>
+        <v>2518833552.388307</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1149121741009444</v>
+        <v>0.1447969260753945</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04520583200782567</v>
+        <v>0.04481765374116028</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3248651469.601395</v>
+        <v>3498521227.444346</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09726338797677998</v>
+        <v>0.117437348872443</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04615066326623697</v>
+        <v>0.03653393984201565</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1965131801.763843</v>
+        <v>2009324885.401867</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1949285271926481</v>
+        <v>0.1532528170262251</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02203276763622935</v>
+        <v>0.01743028721011263</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1937389489.525476</v>
+        <v>1586373175.289883</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09185494743519337</v>
+        <v>0.09103596802574569</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03005643063682651</v>
+        <v>0.03160810481231769</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2322645213.821126</v>
+        <v>2243572467.152447</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1942631641469547</v>
+        <v>0.143418764296729</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04006063729642135</v>
+        <v>0.04772630712078058</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4694117748.553314</v>
+        <v>5016040855.913628</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1188414071757546</v>
+        <v>0.1455427648927051</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04545302470716196</v>
+        <v>0.04753988882043332</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4342360463.976633</v>
+        <v>3687948846.413871</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1630406311100418</v>
+        <v>0.1907254965536793</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03604014221307638</v>
+        <v>0.05822438028185584</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4202079834.852339</v>
+        <v>3628061917.395123</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08456433978673185</v>
+        <v>0.08759884914595675</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02904034249465553</v>
+        <v>0.02913344361192588</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1512066401.727169</v>
+        <v>1257795021.680595</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1837222772090684</v>
+        <v>0.1939745520342653</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03926832523067742</v>
+        <v>0.03599941587637819</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3397880700.906969</v>
+        <v>3981543334.138175</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1573564751135375</v>
+        <v>0.1385136656603571</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0530056304306824</v>
+        <v>0.04830870672018565</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1211573703.783992</v>
+        <v>1257082773.060691</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1656115121171879</v>
+        <v>0.171972419543451</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05347470627053025</v>
+        <v>0.04017664260939153</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4049271033.475181</v>
+        <v>3341909411.566475</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1066657764545991</v>
+        <v>0.1372961346454119</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05356705761253049</v>
+        <v>0.05031844866837339</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3185575094.896521</v>
+        <v>3282433558.013426</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1403054854099693</v>
+        <v>0.1854573514737006</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03091678032360079</v>
+        <v>0.02718161687700601</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3156586615.073943</v>
+        <v>3387150843.703011</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1451597080479499</v>
+        <v>0.1552187204790139</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04339005575922804</v>
+        <v>0.03671198341323035</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4717430193.392964</v>
+        <v>4450715078.600588</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2015966728365729</v>
+        <v>0.1999488416240635</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03115656501023338</v>
+        <v>0.03078211366315898</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1278405539.768985</v>
+        <v>1208095434.646758</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1459678744569912</v>
+        <v>0.1022300398182453</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05236791574503813</v>
+        <v>0.03911086259979202</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2946274868.708656</v>
+        <v>4040705836.896749</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1559701888349447</v>
+        <v>0.1636926035107229</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01938447729342735</v>
+        <v>0.01712001110205451</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1629228551.194628</v>
+        <v>1790042257.107894</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1582522440600654</v>
+        <v>0.1894226785755662</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02581141780697196</v>
+        <v>0.03713866609871431</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3555037239.85063</v>
+        <v>4211787771.080968</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08663980621435055</v>
+        <v>0.08315550046117964</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0472462195160696</v>
+        <v>0.03235393871113579</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3172294487.526405</v>
+        <v>2638040878.065741</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1560318558343129</v>
+        <v>0.1452453166144781</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02692689642445077</v>
+        <v>0.02884052095141206</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2567231853.613139</v>
+        <v>3066305172.005493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1127322609370894</v>
+        <v>0.1173688662214072</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02093081654268901</v>
+        <v>0.02088735182496349</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1533854026.839063</v>
+        <v>1633283887.854104</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1605341103600367</v>
+        <v>0.1697281671262999</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04099986538392707</v>
+        <v>0.03716057739096155</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4589975337.347549</v>
+        <v>4856926141.960702</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06644633236854879</v>
+        <v>0.08411154856416149</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02930892717523158</v>
+        <v>0.03465148772593497</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4334610961.065362</v>
+        <v>4584816070.263514</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1272345041975851</v>
+        <v>0.1633349094964181</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03416877236950222</v>
+        <v>0.02146428795294603</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4864716728.969717</v>
+        <v>5181549984.973145</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132074140231218</v>
+        <v>0.1325900149149944</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03114380949187259</v>
+        <v>0.0228617148217472</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5681388826.144124</v>
+        <v>4380276655.662579</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1434741214513545</v>
+        <v>0.1287620996664061</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04761763668014563</v>
+        <v>0.04587517831241805</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2180761161.538045</v>
+        <v>3118813626.307018</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0863793140958672</v>
+        <v>0.07578824433982906</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04618637225559573</v>
+        <v>0.03759923641490016</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5965736599.860003</v>
+        <v>4553268020.760665</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1411762999130839</v>
+        <v>0.1415240160977859</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04036480165799233</v>
+        <v>0.0317711934925643</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2465649249.617694</v>
+        <v>1531963558.776372</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1454405563007775</v>
+        <v>0.1688001417271742</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03886506338909099</v>
+        <v>0.05785455812021185</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3033491752.257483</v>
+        <v>3567995237.583536</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08862428070066899</v>
+        <v>0.06915193987473116</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04677071144205896</v>
+        <v>0.03737037035168719</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3929217387.917428</v>
+        <v>5646507468.953344</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1692260832155543</v>
+        <v>0.1245150980587832</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02203940893174066</v>
+        <v>0.03180069476290787</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1506996796.461811</v>
+        <v>1522375492.700955</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07250927010021624</v>
+        <v>0.08240585135763721</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04881027853235586</v>
+        <v>0.04432642086559933</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2950746288.005511</v>
+        <v>3213294547.999821</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1016973178463817</v>
+        <v>0.08042211080312552</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03274443873812968</v>
+        <v>0.04696754590693739</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2563810417.963403</v>
+        <v>3807282244.908934</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1725740426994252</v>
+        <v>0.1261094926855043</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02871162091515575</v>
+        <v>0.03080545968130996</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1511349099.943687</v>
+        <v>1949562749.078469</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1008570215415887</v>
+        <v>0.1355917944002292</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02411859096799759</v>
+        <v>0.03464524872478206</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4249992756.946157</v>
+        <v>4543497416.56305</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07592404271173418</v>
+        <v>0.07574213777921669</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02159620274907944</v>
+        <v>0.02713354279539481</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1617920410.09543</v>
+        <v>1771983922.939459</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1147779410167068</v>
+        <v>0.1310313645503042</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02911699905238882</v>
+        <v>0.02106573365791909</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4337282312.869059</v>
+        <v>4660992513.523364</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0863305552694265</v>
+        <v>0.1011202317776089</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05391954780020019</v>
+        <v>0.04555053965852548</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1434986262.045211</v>
+        <v>1878703508.003887</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1174485370674715</v>
+        <v>0.1136136861742796</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02793936341923249</v>
+        <v>0.02587658820271329</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4128519279.390307</v>
+        <v>3784888601.047029</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1047031842126023</v>
+        <v>0.09542076632171598</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03678089117297691</v>
+        <v>0.02392230136113203</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3574874366.979677</v>
+        <v>3901417925.152571</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0884082268643261</v>
+        <v>0.1144028296149707</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02380473301817093</v>
+        <v>0.02588295122671138</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3624822700.554989</v>
+        <v>5401837157.795411</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2145418028261891</v>
+        <v>0.2013797749590857</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01890175576487169</v>
+        <v>0.02597863127039874</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2095466888.428871</v>
+        <v>1941481551.515942</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1477305506818129</v>
+        <v>0.1237424424532233</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04223640625411249</v>
+        <v>0.03565474058895406</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1917046251.046297</v>
+        <v>1837743346.500066</v>
       </c>
       <c r="F84" t="n">
-        <v>0.114564064677899</v>
+        <v>0.110097332133539</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04230722561409365</v>
+        <v>0.03421086789066185</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3591220377.051152</v>
+        <v>3680662539.003828</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1320464717970819</v>
+        <v>0.1565694666305921</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03452000019714079</v>
+        <v>0.04825067393186785</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1914296533.317147</v>
+        <v>2305973120.411134</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1489436748409574</v>
+        <v>0.1591065200651644</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02286473416693156</v>
+        <v>0.01851052230109387</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1174480696.551711</v>
+        <v>1330839408.58757</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1851862727708055</v>
+        <v>0.1900853767837015</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02849467492242318</v>
+        <v>0.04106667851876392</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3006321524.407373</v>
+        <v>3253163961.272381</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1522073132089022</v>
+        <v>0.1727783605383661</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02725991778417458</v>
+        <v>0.03451114544779134</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3073615702.028502</v>
+        <v>2639091280.648526</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1062850682049336</v>
+        <v>0.1601420375554896</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03947442549786737</v>
+        <v>0.0335832845004199</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1694391137.644718</v>
+        <v>2161962155.739903</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1289246288998796</v>
+        <v>0.084391087668716</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03672174615947684</v>
+        <v>0.05266943358618449</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1805912029.995486</v>
+        <v>1732843028.326036</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1886299778878132</v>
+        <v>0.1409594448536818</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04826301592246184</v>
+        <v>0.04537781085244041</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1988722589.639436</v>
+        <v>2370851919.595391</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1073747117890511</v>
+        <v>0.09126376083339646</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03087129423732429</v>
+        <v>0.03308297765656602</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4947168038.257689</v>
+        <v>3729429986.934863</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1100349692609986</v>
+        <v>0.1167498841431878</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04857799758199371</v>
+        <v>0.04626673252854728</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1952476661.774107</v>
+        <v>2455978564.353097</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1425806060112871</v>
+        <v>0.1618376706493845</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03904278068618795</v>
+        <v>0.0394143165330951</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2500965898.096102</v>
+        <v>2940513425.648427</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09655752595435702</v>
+        <v>0.08764684212853403</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03817190580923328</v>
+        <v>0.03516900384372822</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2266411279.852704</v>
+        <v>2388772282.399664</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1122767348403898</v>
+        <v>0.1390981060240779</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03274576240445987</v>
+        <v>0.03990820836113063</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5006410554.394874</v>
+        <v>4049995084.562515</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1569457109618269</v>
+        <v>0.1430429153317548</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02340615112313855</v>
+        <v>0.02011504755798713</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3931170065.060081</v>
+        <v>3608298872.002553</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1228533668294341</v>
+        <v>0.1251150746635661</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02313413926127071</v>
+        <v>0.0210398200099858</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3098210869.173444</v>
+        <v>2981498199.766862</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1002069029960768</v>
+        <v>0.0919308344884745</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02869175378752165</v>
+        <v>0.02343012491727199</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3681006377.133482</v>
+        <v>4810520259.851314</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1134978574931821</v>
+        <v>0.1217406468713337</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02023003278073057</v>
+        <v>0.02655112035378963</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2501105305.359098</v>
+        <v>2606490580.334787</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1579728956655583</v>
+        <v>0.2092834373434291</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05412180542957489</v>
+        <v>0.04308505989120058</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_264.xlsx
+++ b/output/fit_clients/fit_round_264.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1707172082.583819</v>
+        <v>1527810808.27298</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1078509451655157</v>
+        <v>0.08074816762994219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02941959014485416</v>
+        <v>0.03795600335792085</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2402504116.239038</v>
+        <v>1863148400.680247</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1554921682277501</v>
+        <v>0.1405737204886002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03280234027096075</v>
+        <v>0.04793750715489581</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5166807334.350026</v>
+        <v>4173634615.122546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1356790348810959</v>
+        <v>0.1371367048958287</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02492115178983415</v>
+        <v>0.02552231933505216</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>142</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263</v>
+      </c>
+      <c r="K4" t="n">
+        <v>90.98245253202288</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3744557077.349605</v>
+        <v>3564502431.276576</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09553938416694149</v>
+        <v>0.0809041000415158</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04688319247749245</v>
+        <v>0.04198371565227737</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2486266259.257173</v>
+        <v>2596416833.743102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1370254619657003</v>
+        <v>0.09989472625939937</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04035577475521113</v>
+        <v>0.04059998104018741</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1929844201.347326</v>
+        <v>2586953955.955343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07420426365525754</v>
+        <v>0.09296515948079344</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04865358778152667</v>
+        <v>0.04707359241439311</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3905829166.080524</v>
+        <v>2981831610.708617</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1486280108896331</v>
+        <v>0.2075576459315316</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03251872857915691</v>
+        <v>0.02078898728709356</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2170262294.349258</v>
+        <v>2053577460.922876</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1967724608293281</v>
+        <v>0.1889956022182847</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03527644088792292</v>
+        <v>0.03601312999047425</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5562043079.31658</v>
+        <v>4233278816.620018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2001027083384575</v>
+        <v>0.1458670620105168</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04514237075712017</v>
+        <v>0.04464835382890461</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>239</v>
+      </c>
+      <c r="J10" t="n">
+        <v>264</v>
+      </c>
+      <c r="K10" t="n">
+        <v>101.5880323895628</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3865514897.183312</v>
+        <v>3226322108.49359</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1319096522839762</v>
+        <v>0.1558171271292492</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04160663096106779</v>
+        <v>0.04365801957190141</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>108</v>
+      </c>
+      <c r="J11" t="n">
+        <v>263</v>
+      </c>
+      <c r="K11" t="n">
+        <v>61.85470388462806</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3071110768.871468</v>
+        <v>3313548145.567063</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1980443394053185</v>
+        <v>0.1503699322578422</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04676690643686364</v>
+        <v>0.03876790090845643</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4767218646.126369</v>
+        <v>4778152616.900608</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09154366321094178</v>
+        <v>0.08279003849466116</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02828187388393124</v>
+        <v>0.02542855966569096</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>134</v>
+      </c>
+      <c r="J13" t="n">
+        <v>263</v>
+      </c>
+      <c r="K13" t="n">
+        <v>96.88758176297161</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3645000779.619442</v>
+        <v>2537388825.556018</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1384605359997864</v>
+        <v>0.1567701978433459</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0346831706478804</v>
+        <v>0.03408076360789075</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>53</v>
+      </c>
+      <c r="J14" t="n">
+        <v>262</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1156800579.16031</v>
+        <v>1495791153.001807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07922898999623974</v>
+        <v>0.09318216444137799</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04355354612584541</v>
+        <v>0.04195056454042968</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2511545226.973475</v>
+        <v>2720018887.97128</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09744378661658046</v>
+        <v>0.1014334262176817</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04989378647635382</v>
+        <v>0.04687973999456387</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4213292869.308821</v>
+        <v>3960630059.431672</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1308966144070109</v>
+        <v>0.1269232813368934</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03780591001046221</v>
+        <v>0.03399968411409523</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>126</v>
+      </c>
+      <c r="J17" t="n">
+        <v>264</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3844641123.737563</v>
+        <v>3138121619.060599</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1320071059935865</v>
+        <v>0.1779405881604543</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02621850014759804</v>
+        <v>0.02677663785063315</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>66</v>
+      </c>
+      <c r="J18" t="n">
+        <v>263</v>
+      </c>
+      <c r="K18" t="n">
+        <v>56.20886040472087</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1081772776.425173</v>
+        <v>994665567.6851748</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1257034694742554</v>
+        <v>0.1234170657658894</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02310213265192265</v>
+        <v>0.02574883434745756</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2064387532.218393</v>
+        <v>2777150692.689301</v>
       </c>
       <c r="F20" t="n">
-        <v>0.147769773279153</v>
+        <v>0.1335393088034681</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03178455368570443</v>
+        <v>0.03127873582581495</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2490922717.352689</v>
+        <v>2554494573.868378</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09803022228913053</v>
+        <v>0.06712729941218748</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03392201923930118</v>
+        <v>0.04513521685342077</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3837230878.805191</v>
+        <v>2552986166.990893</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1043763045151628</v>
+        <v>0.1430976604065997</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04748059640348384</v>
+        <v>0.0356330789109921</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>68</v>
+      </c>
+      <c r="J22" t="n">
+        <v>260</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1050198300.102643</v>
+        <v>1334806086.293021</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1332482050441057</v>
+        <v>0.1604603725981697</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03515140635789044</v>
+        <v>0.03361751370501356</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3384860069.895492</v>
+        <v>3604439634.040466</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09640941380036237</v>
+        <v>0.1255411866705279</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03119324143838864</v>
+        <v>0.028451474197031</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>79</v>
+      </c>
+      <c r="J24" t="n">
+        <v>264</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1018954101.499046</v>
+        <v>1479114204.310306</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1154718190772948</v>
+        <v>0.09174395498544952</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03027681625486168</v>
+        <v>0.02055553534033776</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1145289426.750199</v>
+        <v>1322209193.716073</v>
       </c>
       <c r="F26" t="n">
-        <v>0.119284194260275</v>
+        <v>0.1176426250311473</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02957066303566291</v>
+        <v>0.02666901760619201</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4498081286.494658</v>
+        <v>2850348883.206695</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1096363801822556</v>
+        <v>0.1060891382689101</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02223901142931303</v>
+        <v>0.02567854515424875</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>108</v>
+      </c>
+      <c r="J27" t="n">
+        <v>263</v>
+      </c>
+      <c r="K27" t="n">
+        <v>39.35337382541158</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1423,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3431093070.861473</v>
+        <v>3317560601.626351</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1503028666269478</v>
+        <v>0.1050462390808145</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05027814546454672</v>
+        <v>0.03664097557976834</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>263</v>
+      </c>
+      <c r="K28" t="n">
+        <v>62.37090579132045</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4795646376.78261</v>
+        <v>5152916212.799499</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1241123312392642</v>
+        <v>0.1285221608208412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03737444979849727</v>
+        <v>0.0359020252004919</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>252</v>
+      </c>
+      <c r="J29" t="n">
+        <v>264</v>
+      </c>
+      <c r="K29" t="n">
+        <v>101.3808389536438</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1955094550.266451</v>
+        <v>2300858285.134733</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1139777297300666</v>
+        <v>0.1021749436522701</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0386378896492229</v>
+        <v>0.03747243177294227</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1489999574.180285</v>
+        <v>1286867811.188966</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08329046194526123</v>
+        <v>0.1020038639167363</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04440573234955883</v>
+        <v>0.05225619997701379</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1842781485.975775</v>
+        <v>1394343348.888263</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1082113496913492</v>
+        <v>0.07852271019336618</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03375597506174017</v>
+        <v>0.03475448136615178</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2526257409.776058</v>
+        <v>2236594074.044494</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2044831057624931</v>
+        <v>0.1585526420163056</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04643079350978638</v>
+        <v>0.04630403219395313</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1500929537.53122</v>
+        <v>1044461954.655929</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09246506113705509</v>
+        <v>0.1047429965198213</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02582080377868422</v>
+        <v>0.02698045878273819</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>951954167.4341356</v>
+        <v>1299531347.275323</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09925316195604943</v>
+        <v>0.09425144946570634</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03212164309725631</v>
+        <v>0.04224080100443728</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3255674427.170722</v>
+        <v>2461159880.751292</v>
       </c>
       <c r="F36" t="n">
-        <v>0.150301160927199</v>
+        <v>0.1441561542309155</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01782845673427295</v>
+        <v>0.02020693775169785</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1997907286.325518</v>
+        <v>1876546853.120035</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08091867408044535</v>
+        <v>0.09466463098305822</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0378148008139142</v>
+        <v>0.04063397336540629</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2198815735.995862</v>
+        <v>2199486862.029099</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1188764739053224</v>
+        <v>0.08009645179151863</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02629972474850297</v>
+        <v>0.03167706420600618</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1812,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1490228007.18162</v>
+        <v>1898506610.333114</v>
       </c>
       <c r="F39" t="n">
-        <v>0.164758631007102</v>
+        <v>0.1537420280974111</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03282153386943137</v>
+        <v>0.0297184955233702</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1196888688.909811</v>
+        <v>1351825109.922749</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1283527133720187</v>
+        <v>0.1052395910331041</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03783012001239868</v>
+        <v>0.04853801263763638</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2518833552.388307</v>
+        <v>2280943722.326574</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1447969260753945</v>
+        <v>0.1059597032984103</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04481765374116028</v>
+        <v>0.03463138881362317</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3498521227.444346</v>
+        <v>4318830722.674234</v>
       </c>
       <c r="F42" t="n">
-        <v>0.117437348872443</v>
+        <v>0.08498989388374378</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03653393984201565</v>
+        <v>0.03858872006042779</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>110</v>
+      </c>
+      <c r="J42" t="n">
+        <v>264</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2009324885.401867</v>
+        <v>1884465748.155055</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1532528170262251</v>
+        <v>0.1945158478243968</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01743028721011263</v>
+        <v>0.0177496816085291</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1586373175.289883</v>
+        <v>1893271509.702819</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09103596802574569</v>
+        <v>0.08047518695223108</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03160810481231769</v>
+        <v>0.02934034909728927</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2243572467.152447</v>
+        <v>2020446488.026651</v>
       </c>
       <c r="F45" t="n">
-        <v>0.143418764296729</v>
+        <v>0.1372763763165623</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04772630712078058</v>
+        <v>0.04294362447332698</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5016040855.913628</v>
+        <v>5490211321.208951</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1455427648927051</v>
+        <v>0.1106083292592591</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04753988882043332</v>
+        <v>0.05423030779535522</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>153</v>
+      </c>
+      <c r="J46" t="n">
+        <v>264</v>
+      </c>
+      <c r="K46" t="n">
+        <v>97.7729453489732</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2094,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3687948846.413871</v>
+        <v>4878994268.218421</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1907254965536793</v>
+        <v>0.1674626960071682</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05822438028185584</v>
+        <v>0.04832315744939426</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>119</v>
+      </c>
+      <c r="J47" t="n">
+        <v>264</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3628061917.395123</v>
+        <v>3866245930.353885</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08759884914595675</v>
+        <v>0.1059807983536761</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02913344361192588</v>
+        <v>0.02935835720481758</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>130</v>
+      </c>
+      <c r="J48" t="n">
+        <v>263</v>
+      </c>
+      <c r="K48" t="n">
+        <v>86.81750284182745</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1257795021.680595</v>
+        <v>1678253407.564799</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1939745520342653</v>
+        <v>0.1470939950068213</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03599941587637819</v>
+        <v>0.03422157088974851</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2201,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3981543334.138175</v>
+        <v>3387428973.632781</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1385136656603571</v>
+        <v>0.1462998203217843</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04830870672018565</v>
+        <v>0.03329832442658739</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>84</v>
+      </c>
+      <c r="J50" t="n">
+        <v>262</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1257082773.060691</v>
+        <v>1057776642.315624</v>
       </c>
       <c r="F51" t="n">
-        <v>0.171972419543451</v>
+        <v>0.1569224056834637</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04017664260939153</v>
+        <v>0.04161595573872322</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3341909411.566475</v>
+        <v>4376035915.109662</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1372961346454119</v>
+        <v>0.1036755582124634</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05031844866837339</v>
+        <v>0.04258314129189444</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>168</v>
+      </c>
+      <c r="J52" t="n">
+        <v>263</v>
+      </c>
+      <c r="K52" t="n">
+        <v>95.19596924279205</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3282433558.013426</v>
+        <v>3238807724.790249</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1854573514737006</v>
+        <v>0.1322941403746777</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02718161687700601</v>
+        <v>0.0340414113829378</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>36</v>
+      </c>
+      <c r="J53" t="n">
+        <v>259</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3387150843.703011</v>
+        <v>3853448490.095685</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1552187204790139</v>
+        <v>0.1396966867291207</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03671198341323035</v>
+        <v>0.04931080160175872</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>139</v>
+      </c>
+      <c r="J54" t="n">
+        <v>264</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4450715078.600588</v>
+        <v>3599692115.709271</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1999488416240635</v>
+        <v>0.1542795071731841</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03078211366315898</v>
+        <v>0.02123730594311723</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>118</v>
+      </c>
+      <c r="J55" t="n">
+        <v>264</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1208095434.646758</v>
+        <v>1850738973.319687</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1022300398182453</v>
+        <v>0.1112297200973952</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03911086259979202</v>
+        <v>0.04847922965007394</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4040705836.896749</v>
+        <v>4292416393.267519</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1636926035107229</v>
+        <v>0.1651311184526336</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01712001110205451</v>
+        <v>0.0201906057655187</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>106</v>
+      </c>
+      <c r="J57" t="n">
+        <v>263</v>
+      </c>
+      <c r="K57" t="n">
+        <v>96.72840437568236</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1790042257.107894</v>
+        <v>1369676976.11467</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1894226785755662</v>
+        <v>0.1731563751523921</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03713866609871431</v>
+        <v>0.03721580678614778</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4211787771.080968</v>
+        <v>3959887185.915826</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08315550046117964</v>
+        <v>0.08156190896467774</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03235393871113579</v>
+        <v>0.04987744560838055</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>127</v>
+      </c>
+      <c r="J59" t="n">
+        <v>264</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2638040878.065741</v>
+        <v>3758104739.513182</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1452453166144781</v>
+        <v>0.1568474076499401</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02884052095141206</v>
+        <v>0.03291072189196564</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>39</v>
+      </c>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3066305172.005493</v>
+        <v>3300982454.184761</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1173688662214072</v>
+        <v>0.1282118006668722</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02088735182496349</v>
+        <v>0.02947693434458891</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1633283887.854104</v>
+        <v>1993405345.28423</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1697281671262999</v>
+        <v>0.1768945386793656</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03716057739096155</v>
+        <v>0.03002677901926404</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4856926141.960702</v>
+        <v>5046100738.644807</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08411154856416149</v>
+        <v>0.07892300488825588</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03465148772593497</v>
+        <v>0.02921326363971493</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>128</v>
+      </c>
+      <c r="J63" t="n">
+        <v>264</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4584816070.263514</v>
+        <v>4641145034.44398</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1633349094964181</v>
+        <v>0.1423327880446425</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02146428795294603</v>
+        <v>0.02656009624143881</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>130</v>
+      </c>
+      <c r="J64" t="n">
+        <v>263</v>
+      </c>
+      <c r="K64" t="n">
+        <v>96.1037360230012</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5181549984.973145</v>
+        <v>5810669246.963662</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1325900149149944</v>
+        <v>0.146860992814579</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0228617148217472</v>
+        <v>0.03234221219330679</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>212</v>
+      </c>
+      <c r="J65" t="n">
+        <v>264</v>
+      </c>
+      <c r="K65" t="n">
+        <v>97.47821655204267</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4380276655.662579</v>
+        <v>4685677753.642151</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1287620996664061</v>
+        <v>0.132045181552766</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04587517831241805</v>
+        <v>0.04612067760198383</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>130</v>
+      </c>
+      <c r="J66" t="n">
+        <v>264</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3118813626.307018</v>
+        <v>3101598070.626107</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07578824433982906</v>
+        <v>0.07732589935672833</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03759923641490016</v>
+        <v>0.04311878338767613</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4553268020.760665</v>
+        <v>5749779868.072724</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1415240160977859</v>
+        <v>0.1232059482717691</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0317711934925643</v>
+        <v>0.04854234494334287</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>135</v>
+      </c>
+      <c r="J68" t="n">
+        <v>263</v>
+      </c>
+      <c r="K68" t="n">
+        <v>96.90619985753169</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1531963558.776372</v>
+        <v>2102349018.538909</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1688001417271742</v>
+        <v>0.1597294171897836</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05785455812021185</v>
+        <v>0.05189250340529078</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3567995237.583536</v>
+        <v>3427579816.51487</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06915193987473116</v>
+        <v>0.1012336779494603</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03737037035168719</v>
+        <v>0.04879676281048698</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5646507468.953344</v>
+        <v>5311787225.259276</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1245150980587832</v>
+        <v>0.1861978468307431</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03180069476290787</v>
+        <v>0.03145507000606964</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>199</v>
+      </c>
+      <c r="J71" t="n">
+        <v>264</v>
+      </c>
+      <c r="K71" t="n">
+        <v>98.25237934393819</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1522375492.700955</v>
+        <v>1466688826.962451</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08240585135763721</v>
+        <v>0.1026428274578701</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04432642086559933</v>
+        <v>0.03871702520218189</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3213294547.999821</v>
+        <v>3410739199.006969</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08042211080312552</v>
+        <v>0.1010043996854002</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04696754590693739</v>
+        <v>0.04727662722650753</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3807282244.908934</v>
+        <v>3746714906.485809</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1261094926855043</v>
+        <v>0.1662493434579865</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03080545968130996</v>
+        <v>0.0295810588224717</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>264</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1949562749.078469</v>
+        <v>2013790083.491043</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1355917944002292</v>
+        <v>0.150113355367617</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03464524872478206</v>
+        <v>0.03331891094896813</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4543497416.56305</v>
+        <v>4059772620.289052</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07574213777921669</v>
+        <v>0.07978877450023091</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02713354279539481</v>
+        <v>0.02559681802972448</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>123</v>
+      </c>
+      <c r="J76" t="n">
+        <v>264</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1771983922.939459</v>
+        <v>2116083627.112118</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1310313645503042</v>
+        <v>0.1431170723339022</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02106573365791909</v>
+        <v>0.03122411939608718</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4660992513.523364</v>
+        <v>4452021854.219688</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1011202317776089</v>
+        <v>0.1218374204173265</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04555053965852548</v>
+        <v>0.03840007461846984</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>132</v>
+      </c>
+      <c r="J78" t="n">
+        <v>264</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1878703508.003887</v>
+        <v>1521182177.545682</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1136136861742796</v>
+        <v>0.1546637383122571</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02587658820271329</v>
+        <v>0.02562365695499537</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3784888601.047029</v>
+        <v>4351083454.892042</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09542076632171598</v>
+        <v>0.1013795619463995</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02392230136113203</v>
+        <v>0.02433453050245413</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>129</v>
+      </c>
+      <c r="J80" t="n">
+        <v>263</v>
+      </c>
+      <c r="K80" t="n">
+        <v>71.96149147414593</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3901417925.152571</v>
+        <v>3509787353.650104</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1144028296149707</v>
+        <v>0.1018085404232029</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02588295122671138</v>
+        <v>0.03135062516833084</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>121</v>
+      </c>
+      <c r="J81" t="n">
+        <v>263</v>
+      </c>
+      <c r="K81" t="n">
+        <v>57.7837250690775</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5401837157.795411</v>
+        <v>3961467414.299203</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2013797749590857</v>
+        <v>0.1697714612680624</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02597863127039874</v>
+        <v>0.02896403915644766</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>198</v>
+      </c>
+      <c r="J82" t="n">
+        <v>263</v>
+      </c>
+      <c r="K82" t="n">
+        <v>86.60772806259301</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1941481551.515942</v>
+        <v>1864680593.693485</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1237424424532233</v>
+        <v>0.1240238152518745</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03565474058895406</v>
+        <v>0.02775111728284966</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1837743346.500066</v>
+        <v>1970845832.009041</v>
       </c>
       <c r="F84" t="n">
-        <v>0.110097332133539</v>
+        <v>0.1065114169492277</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03421086789066185</v>
+        <v>0.03425202507574998</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3680662539.003828</v>
+        <v>2616341615.435325</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1565694666305921</v>
+        <v>0.182477660879672</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04825067393186785</v>
+        <v>0.04959133369804282</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2305973120.411134</v>
+        <v>2244145280.771062</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1591065200651644</v>
+        <v>0.1567958030674564</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01851052230109387</v>
+        <v>0.01939097495424569</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1330839408.58757</v>
+        <v>1371246491.933181</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1900853767837015</v>
+        <v>0.1631961331192288</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04106667851876392</v>
+        <v>0.03317195965316273</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3253163961.272381</v>
+        <v>2958216312.959115</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1727783605383661</v>
+        <v>0.1579674655170633</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03451114544779134</v>
+        <v>0.028827966971332</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2639091280.648526</v>
+        <v>2749585019.382635</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1601420375554896</v>
+        <v>0.1199347344119819</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0335832845004199</v>
+        <v>0.02931683643459982</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2161962155.739903</v>
+        <v>1396315910.757975</v>
       </c>
       <c r="F90" t="n">
-        <v>0.084391087668716</v>
+        <v>0.1109268860876119</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05266943358618449</v>
+        <v>0.0462025002916997</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1732843028.326036</v>
+        <v>1430039341.269897</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1409594448536818</v>
+        <v>0.1418409629023693</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04537781085244041</v>
+        <v>0.06079501274405224</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2370851919.595391</v>
+        <v>3001789933.528613</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09126376083339646</v>
+        <v>0.09279466897606542</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03308297765656602</v>
+        <v>0.03085996934315096</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3729429986.934863</v>
+        <v>4956445023.698235</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1167498841431878</v>
+        <v>0.1277061855993237</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04626673252854728</v>
+        <v>0.04464245396980571</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>115</v>
+      </c>
+      <c r="J93" t="n">
+        <v>264</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2455978564.353097</v>
+        <v>1549791630.721575</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1618376706493845</v>
+        <v>0.1534725338493147</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0394143165330951</v>
+        <v>0.02955843847385911</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2940513425.648427</v>
+        <v>3278712095.735512</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08764684212853403</v>
+        <v>0.1229408026396017</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03516900384372822</v>
+        <v>0.03995910274430883</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2388772282.399664</v>
+        <v>2175251533.870103</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1390981060240779</v>
+        <v>0.1022940383942504</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03990820836113063</v>
+        <v>0.03627653849381671</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4049995084.562515</v>
+        <v>4535467585.182961</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1430429153317548</v>
+        <v>0.1107925759722788</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02011504755798713</v>
+        <v>0.01889096887957954</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>130</v>
+      </c>
+      <c r="J97" t="n">
+        <v>264</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3608298872.002553</v>
+        <v>3229997669.189278</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1251150746635661</v>
+        <v>0.1003929368431058</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0210398200099858</v>
+        <v>0.02981775256279151</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>64</v>
+      </c>
+      <c r="J98" t="n">
+        <v>260</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2981498199.766862</v>
+        <v>2271294147.296471</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0919308344884745</v>
+        <v>0.1098344184165443</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02343012491727199</v>
+        <v>0.02154550149922514</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4810520259.851314</v>
+        <v>4090141249.271115</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1217406468713337</v>
+        <v>0.1502795474780675</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02655112035378963</v>
+        <v>0.01796325851922202</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>111</v>
+      </c>
+      <c r="J100" t="n">
+        <v>263</v>
+      </c>
+      <c r="K100" t="n">
+        <v>90.3035543830796</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2606490580.334787</v>
+        <v>2195584650.025448</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2092834373434291</v>
+        <v>0.1478811119604034</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04308505989120058</v>
+        <v>0.04664944571408777</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>20</v>
+      </c>
+      <c r="J101" t="n">
+        <v>259</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
